--- a/xray.xlsx
+++ b/xray.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksdom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7aaff7f49afae754/Рабочий стол/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D275C132-C31B-4864-9FB6-681D3A156F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{D275C132-C31B-4864-9FB6-681D3A156F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE1A169-0D9B-420E-8D4D-9F124EB58E00}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14281ADB-1FD5-49E0-B17E-E39FA0FAF66E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="165">
   <si>
     <t>Comm</t>
   </si>
@@ -553,12 +553,18 @@
   <si>
     <t>read kvma</t>
   </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +678,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -688,7 +700,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -748,6 +760,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -757,22 +785,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% — акцент1" xfId="3" builtinId="32"/>
@@ -1090,775 +1103,811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7085FF-338C-451F-9D1F-AD314C358E66}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="22" style="15" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="22" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="30"/>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:10" ht="15">
+      <c r="A3" s="30"/>
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="F3" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
+      <c r="A4" s="30"/>
+      <c r="C4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="F4" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="30"/>
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="J5" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" s="30"/>
+      <c r="C6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="F6" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="29"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="30"/>
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="F7" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="I8" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="30"/>
+      <c r="C9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="I9" s="27" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="30"/>
+      <c r="C10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="30"/>
+      <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="I11" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="30"/>
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="I12" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="J12" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="30"/>
+      <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="I13" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="J13" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="30"/>
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="I14" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="J14" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="30"/>
+      <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="16" t="s">
+      <c r="I15" s="27"/>
+      <c r="J15" s="16" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="30"/>
+      <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="I16" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="J16" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:10">
+      <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="I17" s="17" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:10" ht="15">
+      <c r="C18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="I18" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:10">
+      <c r="C19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="I19" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:10">
+      <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:10" ht="105">
+      <c r="A21" s="30"/>
+      <c r="C21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="I21" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="J21" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="30"/>
+      <c r="C22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="I22" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="J22" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:10">
+      <c r="A23" s="30"/>
+      <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="I23" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:10" ht="30">
+      <c r="C24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="I24" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="J24" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:10" ht="195">
+      <c r="A25" s="30"/>
+      <c r="C25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="I25" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="J25" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:10">
+      <c r="A26" s="30"/>
+      <c r="C26" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="F26" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="3"/>
+      <c r="I26" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="30"/>
+      <c r="C27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="F27" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>95</v>
       </c>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:10" ht="135">
+      <c r="A28" s="30"/>
+      <c r="C28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="I28" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="J28" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="30"/>
+      <c r="C29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="F29" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="I29" s="28" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" s="30"/>
+      <c r="C30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="1:10" ht="31.5">
+      <c r="A31" s="30"/>
+      <c r="C31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="F31" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="I31" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" s="30"/>
+      <c r="C32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="I32" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="J32" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:10">
+      <c r="A33" s="30"/>
+      <c r="C33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="I33" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="J33" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:10" ht="60">
+      <c r="C34" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="I34" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="J34" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+    <row r="35" spans="1:10">
+      <c r="C35" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="F35" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="23" t="s">
+      <c r="I35" s="29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+    <row r="36" spans="1:10">
+      <c r="C36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="I36" s="29"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="C37" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="I37" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+    <row r="38" spans="1:10">
+      <c r="A38" s="30"/>
+      <c r="C38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="I38" s="27" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:10">
+      <c r="A39" s="30"/>
+      <c r="C39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="F39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="30"/>
+      <c r="C40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="F40" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="I40" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="J40" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:10">
+      <c r="C41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="F41" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="I41" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="J41" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+    <row r="42" spans="1:10">
+      <c r="C42" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="I42" s="17" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+    <row r="43" spans="1:10">
+      <c r="C43" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="F43" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="I43" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="J43" s="15" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I29:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xray.xlsx
+++ b/xray.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7aaff7f49afae754/Рабочий стол/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{D275C132-C31B-4864-9FB6-681D3A156F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE1A169-0D9B-420E-8D4D-9F124EB58E00}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{D275C132-C31B-4864-9FB6-681D3A156F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FA33C79-9B10-420F-A3E2-64133EEF812B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14281ADB-1FD5-49E0-B17E-E39FA0FAF66E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="166">
   <si>
     <t>Comm</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>read current message</t>
-  </si>
-  <si>
-    <t>xx - number s per message table</t>
   </si>
   <si>
     <t>acknowledge error</t>
@@ -558,6 +555,12 @@
   </si>
   <si>
     <t>Tested</t>
+  </si>
+  <si>
+    <t>xx - number as per message table</t>
+  </si>
+  <si>
+    <t>Tested on hardware</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,6 +687,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -700,7 +709,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,19 +782,21 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% — акцент1" xfId="3" builtinId="32"/>
@@ -1103,809 +1114,848 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7085FF-338C-451F-9D1F-AD314C358E66}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="33.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
-    <col min="8" max="8" width="34.5703125" customWidth="1"/>
-    <col min="9" max="9" width="39.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="22" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="22" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
         <v>163</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="D3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="15">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="D4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="D6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" ht="15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="D7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="D9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="D10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="28"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="26"/>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="D14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="D15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="D16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="26"/>
+      <c r="D17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15">
+      <c r="A18" s="26"/>
+      <c r="D18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="26"/>
+      <c r="D19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="30"/>
-      <c r="C2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="J19" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="D20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="105">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="D21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="D22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="17" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="30"/>
-      <c r="C3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22" t="s">
+      <c r="K22" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="D23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" ht="15">
-      <c r="A4" s="30"/>
-      <c r="C4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="G23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30">
+      <c r="D24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="195">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="D25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="D26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="30"/>
-      <c r="C5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" s="30"/>
-      <c r="C6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22" t="s">
+      <c r="G26" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="J26" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="D27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="28" spans="1:11" ht="135">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="D28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="D29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" s="30"/>
-      <c r="C7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22" t="s">
+      <c r="G29" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="D30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="30"/>
+    </row>
+    <row r="31" spans="1:11" ht="31.5">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="D31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="32"/>
+      <c r="D32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="32"/>
+      <c r="D33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="60">
+      <c r="D34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="D35" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="D36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="26"/>
+      <c r="D37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="D38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="C8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="30"/>
-      <c r="C9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="30"/>
-      <c r="C10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="G38" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="D39" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J39" s="28"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="D40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" t="s">
+        <v>108</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="D41" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="26"/>
+      <c r="D42" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="30"/>
-      <c r="C11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="30"/>
-      <c r="C12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="30"/>
-      <c r="C13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="30"/>
-      <c r="C14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="30"/>
-      <c r="C15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="30"/>
-      <c r="C16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="C17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15">
-      <c r="C18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="C19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="C20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="105">
-      <c r="A21" s="30"/>
-      <c r="C21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="30"/>
-      <c r="C22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="30"/>
-      <c r="C23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="30">
-      <c r="C24" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="195">
-      <c r="A25" s="30"/>
-      <c r="C25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="30"/>
-      <c r="C26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="I26" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="30"/>
-      <c r="C27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="1:10" ht="135">
-      <c r="A28" s="30"/>
-      <c r="C28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="30"/>
-      <c r="C29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="30"/>
-      <c r="C30" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" spans="1:10" ht="31.5">
-      <c r="A31" s="30"/>
-      <c r="C31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="30"/>
-      <c r="C32" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="C33" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="60">
-      <c r="C34" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="C35" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="C36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" s="29"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="C37" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="30"/>
-      <c r="C38" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="30"/>
-      <c r="C39" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I39" s="27"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="30"/>
-      <c r="C40" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="C41" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="J41" s="19" t="s">
+      <c r="H42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="C42" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G42" s="1" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" s="26"/>
+      <c r="D43" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I42" s="17" t="s">
+      <c r="J43" s="17" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="C43" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="17" t="s">
+      <c r="K43" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J29:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
